--- a/doc/架构设计/开发文档/数据库字典.xlsx
+++ b/doc/架构设计/开发文档/数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140"/>
+    <workbookView windowWidth="28695" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>用户表</t>
   </si>
@@ -49,7 +49,7 @@
     <t>主键</t>
   </si>
   <si>
-    <t>用户ID</t>
+    <t>自增ID</t>
   </si>
   <si>
     <t>name</t>
@@ -61,6 +61,9 @@
     <t>非空</t>
   </si>
   <si>
+    <t>普通索引</t>
+  </si>
+  <si>
     <t>用户名字</t>
   </si>
   <si>
@@ -70,18 +73,15 @@
     <t>varchar(11)</t>
   </si>
   <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
     <t>无符号、非空</t>
   </si>
   <si>
-    <t>普通索引</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>device_id</t>
-  </si>
-  <si>
     <t>关联的设备ID号</t>
   </si>
   <si>
@@ -94,36 +94,33 @@
     <t>用户状态</t>
   </si>
   <si>
+    <t>login_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>最后登陆的时间</t>
+  </si>
+  <si>
+    <t>login_ip</t>
+  </si>
+  <si>
+    <t>最后登陆的IP地址</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>添加时间</t>
   </si>
   <si>
-    <t>login_time</t>
-  </si>
-  <si>
-    <t>最后登陆的时间</t>
-  </si>
-  <si>
-    <t>login_ip</t>
-  </si>
-  <si>
-    <t>最后登陆的IP地址</t>
-  </si>
-  <si>
     <t>微信信息表</t>
   </si>
   <si>
     <t>pub_wechat</t>
   </si>
   <si>
-    <t>自增ID</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -142,12 +139,36 @@
     <t>nickname</t>
   </si>
   <si>
-    <t>varchar()</t>
-  </si>
-  <si>
     <t>微信昵称</t>
   </si>
   <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
     <t>供销商</t>
   </si>
   <si>
@@ -172,33 +193,48 @@
     <t>供销商登陆的密码</t>
   </si>
   <si>
+    <t>供销商手机号码</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
     <t>供销商邮箱</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>供销商地址</t>
   </si>
   <si>
-    <t>vendors_phone</t>
-  </si>
-  <si>
-    <t>供销商手机号码</t>
-  </si>
-  <si>
     <t>leavel</t>
   </si>
   <si>
     <t>供销商级别：默认为“1”级</t>
   </si>
   <si>
+    <t>供销商分级</t>
+  </si>
+  <si>
+    <t>pub_leaevl</t>
+  </si>
+  <si>
+    <t>vendors_id</t>
+  </si>
+  <si>
+    <t>关联的供销商ID号</t>
+  </si>
+  <si>
+    <t>parent_vid</t>
+  </si>
+  <si>
+    <t>供销商的父级ID</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>供销商的层级关系</t>
+  </si>
+  <si>
     <t>设备表</t>
   </si>
   <si>
@@ -214,6 +250,12 @@
     <t>设备编码</t>
   </si>
   <si>
+    <t>device_statu</t>
+  </si>
+  <si>
+    <t>设备状态：1已入库，2待激活，3已激活</t>
+  </si>
+  <si>
     <t>滤芯表</t>
   </si>
   <si>
@@ -238,15 +280,15 @@
     <t>filter3</t>
   </si>
   <si>
+    <t>滤芯3</t>
+  </si>
+  <si>
+    <t>filter4</t>
+  </si>
+  <si>
     <t>无符号</t>
   </si>
   <si>
-    <t>滤芯3</t>
-  </si>
-  <si>
-    <t>filter4</t>
-  </si>
-  <si>
     <t>滤芯4</t>
   </si>
   <si>
@@ -259,10 +301,7 @@
     <t>设备状态表</t>
   </si>
   <si>
-    <t>pub_device_statu</t>
-  </si>
-  <si>
-    <t>device_statu</t>
+    <t>pub_devices_statu</t>
   </si>
   <si>
     <t>设备状态</t>
@@ -388,7 +427,7 @@
     <t>规则的父级ID</t>
   </si>
   <si>
-    <t>char(80)</t>
+    <t>varchar(80)</t>
   </si>
   <si>
     <t>规则路径 “模块/控制器/方法/”</t>
@@ -397,7 +436,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>char(20)</t>
+    <t>varchar(20)</t>
   </si>
   <si>
     <t>规则的自定义名称</t>
@@ -440,9 +479,6 @@
   </si>
   <si>
     <t>uid</t>
-  </si>
-  <si>
-    <t>关联的供销商ID号</t>
   </si>
   <si>
     <t>group_id</t>
@@ -456,10 +492,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -502,6 +538,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -509,68 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,8 +573,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -607,23 +635,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +674,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +690,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,103 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,61 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,6 +902,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -887,6 +943,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -902,31 +967,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,21 +996,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -968,10 +1004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,133 +1016,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +1234,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="1E1E1E"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1451,10 +1487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
@@ -1520,40 +1556,42 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>22</v>
@@ -1567,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -1592,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1605,9 +1643,11 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
@@ -1652,646 +1692,642 @@
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>6</v>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>6</v>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A42" s="5" t="s">
+    <row r="40" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>75</v>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E43" s="5" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="46" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A47" s="4" t="s">
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="48" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
+    </row>
+    <row r="53" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>6</v>
+      <c r="B54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A55" s="5" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A57" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A59" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E60" s="5" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E61" s="5" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>27</v>
@@ -2329,484 +2365,665 @@
     </row>
     <row r="67" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E70" s="5" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A75" s="1" t="s">
+    <row r="75" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A76" s="4" t="s">
+      <c r="B77" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="77" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A78" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5" t="s">
+    </row>
+    <row r="84" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A83" s="6" t="s">
+      <c r="B84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="85" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A85" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A87" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="5" t="s">
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5" t="s">
+      <c r="B88" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A89" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5" t="s">
-        <v>128</v>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E90" s="5" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5" t="s">
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A96" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A93" s="1" t="s">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A94" s="4" t="s">
+    <row r="98" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A95" s="5" t="s">
+    <row r="99" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A96" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5" t="s">
+      <c r="E99" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A100" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="97" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A97" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5" t="s">
+      <c r="B100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="98" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A98" s="5" t="s">
+    <row r="101" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A102" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A104" s="5" t="s">
         <v>144</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A109" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A110" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A111" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A115" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A116" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A96:E96"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/doc/架构设计/开发文档/数据库字典.xlsx
+++ b/doc/架构设计/开发文档/数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>用户表</t>
   </si>
@@ -364,34 +364,55 @@
     <t>租赁编号</t>
   </si>
   <si>
+    <t>charg_id</t>
+  </si>
+  <si>
+    <t>关联的计费ID号</t>
+  </si>
+  <si>
+    <t>begin_time</t>
+  </si>
+  <si>
+    <t>租赁开始时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>租赁结束时间</t>
+  </si>
+  <si>
+    <t>计费表</t>
+  </si>
+  <si>
+    <t>pub_charg</t>
+  </si>
+  <si>
     <t>lease_way</t>
   </si>
   <si>
-    <t>租赁方式：“1”为计时，“2”为计量</t>
-  </si>
-  <si>
-    <t>rental_fee</t>
-  </si>
-  <si>
-    <t>租赁费用</t>
-  </si>
-  <si>
-    <t>begin_time</t>
-  </si>
-  <si>
-    <t>租赁开始时间</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>租赁结束时间</t>
+    <t>计费方式</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
   </si>
   <si>
     <t>系统日志表</t>
   </si>
   <si>
     <t>pub_loglist</t>
+  </si>
+  <si>
+    <t>关联的登陆ID号</t>
   </si>
   <si>
     <t>content</t>
@@ -493,11 +514,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +550,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -551,10 +608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,8 +631,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,34 +693,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,38 +732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,25 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,13 +771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,73 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,19 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +873,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,18 +960,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,8 +968,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,9 +1021,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,32 +1045,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,10 +1061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,137 +1073,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,13 +1216,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,7 +1336,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="1E1E1E"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1487,1543 +1589,1832 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.75" style="3" customWidth="1"/>
-    <col min="6" max="16383" width="12.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="9" customWidth="1"/>
+    <col min="7" max="16383" width="12.625" style="3" customWidth="1"/>
     <col min="16384" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="23" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A39" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:6">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A42" s="4" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A44" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A46" s="5" t="s">
+    <row r="46" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A50" s="5" t="s">
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A51" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A52" s="5" t="s">
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A52" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A53" s="5" t="s">
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A53" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A54" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A55" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A56" s="5" t="s">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A56" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="F56" s="9"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A59" s="4" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A59" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A61" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A62" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A63" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="65" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A66" s="4" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A67" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A68" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A69" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A70" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A71" s="5" t="s">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A71" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="72" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A72" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="73" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A73" s="5" t="s">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A73" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="74" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A74" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A75" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5" t="s">
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="77" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A78" s="4" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A79" s="5" t="s">
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A79" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A80" s="5" t="s">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A80" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="81" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A81" s="5" t="s">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A81" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A82" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B82" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A82" s="5" t="s">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A83" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="83" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A83" s="5" t="s">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A84" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A85" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A86" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="88" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A88" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A89" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A90" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A91" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A92" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C92" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A93" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A94" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A95" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A98" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A99" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A101" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A102" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A103" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="18"/>
+    </row>
+    <row r="105" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A105" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="14"/>
+    </row>
+    <row r="106" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A106" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="14"/>
+    </row>
+    <row r="107" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A107" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A108" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A109" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="18"/>
+    </row>
+    <row r="110" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A110" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="18"/>
+    </row>
+    <row r="111" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A111" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" s="18"/>
+    </row>
+    <row r="112" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A112" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112" s="18"/>
+    </row>
+    <row r="113" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A113" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="18"/>
+    </row>
+    <row r="114" s="6" customFormat="1" customHeight="1" spans="6:6">
+      <c r="F114" s="18"/>
+    </row>
+    <row r="115" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A115" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="14"/>
+    </row>
+    <row r="116" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A116" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A117" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="18"/>
+    </row>
+    <row r="118" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A118" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F118" s="18"/>
+    </row>
+    <row r="119" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A119" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A85" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A86" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A89" s="4" t="s">
+      <c r="D119" s="17"/>
+      <c r="E119" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="18"/>
+    </row>
+    <row r="120" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A120" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" s="18"/>
+    </row>
+    <row r="121" s="6" customFormat="1" customHeight="1" spans="6:6">
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A122" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="14"/>
+    </row>
+    <row r="123" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B123" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C123" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D123" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E123" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="F123" s="16"/>
+    </row>
+    <row r="124" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A124" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A91" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="C124" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" s="18"/>
+    </row>
+    <row r="125" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A125" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C125" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A93" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A94" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A96" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A98" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A100" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A102" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A103" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A104" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A108" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A109" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A110" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A111" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A115" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A116" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A105:E105"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
